--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" state="visible" r:id="rId2"/>
@@ -87,7 +87,7 @@
     <t xml:space="preserve">House</t>
   </si>
   <si>
-    <t xml:space="preserve">AoESim.State.MaxPop = AoESim.State.MaxPop + AoESim.Consts.PopPerHouse;</t>
+    <t xml:space="preserve">AoESim.CurState.MaxPop = AoESim.CurState.MaxPop + AoESim.Consts.PopPerHouse;</t>
   </si>
   <si>
     <t xml:space="preserve">Lumber Camp</t>
@@ -1136,11 +1136,11 @@
   </sheetPr>
   <dimension ref="A1:W327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
@@ -2171,7 +2171,7 @@
       <selection pane="topLeft" activeCell="J131" activeCellId="0" sqref="J131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
@@ -6580,11 +6580,11 @@
   </sheetPr>
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="279">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -162,12 +162,12 @@
     <t xml:space="preserve">Two-handed Swordsman</t>
   </si>
   <si>
+    <t xml:space="preserve">Eagle Warrior</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elite Eagle Warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">Eagle Warrior</t>
-  </si>
-  <si>
     <t xml:space="preserve">Halberdier</t>
   </si>
   <si>
@@ -273,9 +273,6 @@
     <t xml:space="preserve">Double-Bit Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">Lumber camp</t>
-  </si>
-  <si>
     <t xml:space="preserve">“AoESim.State.GatherRates” Wood choppers work rate x 1.2 (20% faster)</t>
   </si>
   <si>
@@ -334,9 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gold Mining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mining camp</t>
   </si>
   <si>
     <t xml:space="preserve">Gold miners work rate x 1.15 (15% faster)</t>
@@ -1028,12 +1022,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1136,11 +1130,11 @@
   </sheetPr>
   <dimension ref="A1:W327"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="E85 J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
@@ -2165,15 +2159,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J131" activeCellId="0" sqref="J131"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="103.51"/>
@@ -2259,7 +2254,9 @@
       <c r="E3" s="2" t="n">
         <v>300</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
@@ -2510,7 +2507,9 @@
       <c r="E11" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" s="4" t="n">
         <v>0</v>
       </c>
@@ -2564,33 +2563,30 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -2602,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>13</v>
@@ -2622,7 +2618,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>18</v>
@@ -2637,16 +2633,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>13</v>
@@ -2654,31 +2650,31 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>50</v>
-      </c>
       <c r="G16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>13</v>
@@ -2686,7 +2682,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
@@ -2698,14 +2694,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F17" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="G17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>13</v>
@@ -2716,7 +2714,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -2728,14 +2726,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F18" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>13</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
@@ -2758,14 +2758,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F19" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>13</v>
@@ -2776,7 +2778,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
@@ -2788,14 +2790,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>13</v>
@@ -2806,31 +2810,31 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F21" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="F21" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>13</v>
@@ -2838,7 +2842,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -2850,19 +2854,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>13</v>
@@ -2870,7 +2874,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -2882,19 +2886,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>13</v>
@@ -2902,7 +2906,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -2914,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>13</v>
@@ -2934,7 +2938,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>19</v>
@@ -2946,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>13</v>
@@ -2966,31 +2970,31 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>13</v>
@@ -2998,7 +3002,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>19</v>
@@ -3010,19 +3014,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>13</v>
@@ -3030,7 +3034,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -3042,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>200</v>
@@ -3051,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>13</v>
@@ -3062,7 +3066,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>19</v>
@@ -3074,19 +3078,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>13</v>
@@ -3094,7 +3098,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>19</v>
@@ -3106,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>0</v>
@@ -3118,79 +3122,79 @@
         <v>70</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+      <c r="J31" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="n">
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F32" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="G31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="n">
+      <c r="G32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="11" t="s">
+      <c r="I32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="10" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
@@ -3205,13 +3209,13 @@
         <v>400</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>13</v>
@@ -3222,7 +3226,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>30</v>
@@ -3232,6 +3236,9 @@
       </c>
       <c r="D34" s="4" t="n">
         <v>0</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>400</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>200</v>
@@ -3240,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>13</v>
@@ -3251,7 +3258,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>30</v>
@@ -3262,8 +3269,11 @@
       <c r="D35" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="E35" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F35" s="2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>0</v>
@@ -3280,28 +3290,28 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>250</v>
+      <c r="E36" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>13</v>
@@ -3312,7 +3322,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>16</v>
@@ -3324,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>0</v>
@@ -3344,21 +3354,23 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>500</v>
+        <v>3</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F38" s="10"/>
+        <v>230</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>100</v>
+      </c>
       <c r="G38" s="4" t="n">
         <v>0</v>
       </c>
@@ -3374,7 +3386,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>16</v>
@@ -3382,20 +3394,20 @@
       <c r="C39" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <v>0</v>
+      <c r="D39" s="2" t="n">
+        <v>500</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="F39" s="2" t="n">
         <v>400</v>
       </c>
+      <c r="F39" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>13</v>
@@ -3406,7 +3418,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>16</v>
@@ -3414,17 +3426,20 @@
       <c r="C40" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>525</v>
+      <c r="D40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>600</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>13</v>
@@ -3435,7 +3450,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>16</v>
@@ -3443,20 +3458,20 @@
       <c r="C41" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>750</v>
+      <c r="D41" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>13</v>
@@ -3467,7 +3482,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>16</v>
@@ -3479,16 +3494,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>800</v>
+        <v>475</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>13</v>
@@ -3499,7 +3514,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>16</v>
@@ -3507,20 +3522,23 @@
       <c r="C43" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>280</v>
+      <c r="D43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>1000</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>13</v>
@@ -3528,7 +3546,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>16</v>
@@ -3537,17 +3555,19 @@
         <v>4</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F44" s="10"/>
+        <v>280</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>250</v>
+      </c>
       <c r="G44" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>71</v>
@@ -3558,7 +3578,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>16</v>
@@ -3567,16 +3587,19 @@
         <v>4</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>300</v>
+        <v>315</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>71</v>
@@ -3587,7 +3610,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>16</v>
@@ -3595,9 +3618,11 @@
       <c r="C46" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="2" t="n">
-        <v>1000</v>
+      <c r="D46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>300</v>
@@ -3606,155 +3631,159 @@
         <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C47" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>0</v>
@@ -3766,12 +3795,12 @@
         <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>23</v>
@@ -3786,36 +3815,36 @@
         <v>200</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>200</v>
@@ -3824,141 +3853,149 @@
         <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C54" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>75</v>
+        <v>4</v>
+      </c>
+      <c r="D54" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F54" s="10"/>
+        <v>300</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>200</v>
+      </c>
       <c r="G54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="F55" s="10"/>
+        <v>75</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="I55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="F56" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F57" s="10"/>
+        <v>250</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>2</v>
@@ -3969,7 +4006,9 @@
       <c r="E58" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G58" s="4" t="n">
         <v>0</v>
       </c>
@@ -3980,45 +4019,47 @@
         <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F59" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="11" t="s">
-        <v>109</v>
+      <c r="J59" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>3</v>
@@ -4029,7 +4070,9 @@
       <c r="E60" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="F60" s="10"/>
+      <c r="F60" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="G60" s="4" t="n">
         <v>0</v>
       </c>
@@ -4039,45 +4082,45 @@
       <c r="I60" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D61" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>325</v>
+      <c r="D61" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G61" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="0" t="s">
-        <v>13</v>
+      <c r="J61" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>25</v>
@@ -4092,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>140</v>
+        <v>325</v>
       </c>
       <c r="G62" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>13</v>
@@ -4109,7 +4152,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>25</v>
@@ -4124,13 +4167,13 @@
         <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G63" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>13</v>
@@ -4141,7 +4184,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>25</v>
@@ -4156,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="G64" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>13</v>
@@ -4173,7 +4216,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>25</v>
@@ -4188,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>13</v>
@@ -4205,7 +4248,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>25</v>
@@ -4220,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>120</v>
+        <v>475</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>13</v>
@@ -4237,28 +4280,28 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>13</v>
@@ -4269,7 +4312,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>25</v>
@@ -4277,20 +4320,20 @@
       <c r="C68" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D68" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>750</v>
+      <c r="D68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>13</v>
@@ -4301,7 +4344,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>25</v>
@@ -4312,17 +4355,17 @@
       <c r="D69" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E69" s="4" t="n">
-        <v>0</v>
+      <c r="E69" s="2" t="n">
+        <v>750</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="G69" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>13</v>
@@ -4333,7 +4376,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>25</v>
@@ -4348,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>13</v>
@@ -4365,10 +4408,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>4</v>
@@ -4376,17 +4419,17 @@
       <c r="D71" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E71" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="F71" s="4" t="n">
-        <v>0</v>
+      <c r="E71" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>200</v>
       </c>
       <c r="G71" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>13</v>
@@ -4397,7 +4440,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>26</v>
@@ -4405,11 +4448,11 @@
       <c r="C72" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D72" s="2" t="n">
-        <v>1100</v>
+      <c r="D72" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F72" s="4" t="n">
         <v>0</v>
@@ -4429,7 +4472,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>26</v>
@@ -4437,20 +4480,20 @@
       <c r="C73" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D73" s="4" t="n">
-        <v>0</v>
+      <c r="D73" s="2" t="n">
+        <v>1100</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>800</v>
-      </c>
-      <c r="F73" s="2" t="n">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="F73" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>13</v>
@@ -4461,7 +4504,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>26</v>
@@ -4473,19 +4516,19 @@
         <v>0</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>124</v>
+        <v>75</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>13</v>
@@ -4493,7 +4536,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>26</v>
@@ -4505,14 +4548,16 @@
         <v>0</v>
       </c>
       <c r="E75" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="F75" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F75" s="10"/>
       <c r="G75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>122</v>
@@ -4523,31 +4568,31 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F76" s="2" t="n">
-        <v>100</v>
+        <v>1000</v>
+      </c>
+      <c r="F76" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="J76" s="0" t="s">
         <v>13</v>
@@ -4555,21 +4600,23 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="F77" s="10"/>
+        <v>150</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>100</v>
+      </c>
       <c r="G77" s="4" t="n">
         <v>0</v>
       </c>
@@ -4585,7 +4632,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>27</v>
@@ -4597,16 +4644,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F78" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="F78" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="n">
         <v>50</v>
-      </c>
-      <c r="G78" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2" t="n">
-        <v>45</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>13</v>
@@ -4617,28 +4664,28 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G79" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>13</v>
@@ -4649,7 +4696,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>27</v>
@@ -4661,16 +4708,16 @@
         <v>0</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="G80" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>13</v>
@@ -4681,7 +4728,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>27</v>
@@ -4693,19 +4740,19 @@
         <v>0</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="G81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>13</v>
@@ -4713,7 +4760,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>27</v>
@@ -4725,19 +4772,19 @@
         <v>0</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="G82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J82" s="0" t="s">
         <v>13</v>
@@ -4745,29 +4792,31 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="F83" s="10"/>
+        <v>1300</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>750</v>
+      </c>
       <c r="G83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>13</v>
+        <v>170</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="J83" s="0" t="s">
         <v>13</v>
@@ -4775,7 +4824,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>28</v>
@@ -4786,14 +4835,17 @@
       <c r="D84" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="2" t="n">
-        <v>50</v>
+      <c r="E84" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F84" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>13</v>
@@ -4804,31 +4856,31 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="E85" s="2" t="n">
-        <v>800</v>
+      <c r="E85" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G85" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J85" s="0" t="s">
         <v>13</v>
@@ -4836,7 +4888,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>28</v>
@@ -4848,19 +4900,19 @@
         <v>0</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F86" s="4" t="n">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>200</v>
       </c>
       <c r="G86" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>13</v>
+        <v>160</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="J86" s="0" t="s">
         <v>13</v>
@@ -4868,7 +4920,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>28</v>
@@ -4876,11 +4928,11 @@
       <c r="C87" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D87" s="2" t="n">
-        <v>50</v>
+      <c r="D87" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="F87" s="4" t="n">
         <v>0</v>
@@ -4889,30 +4941,30 @@
         <v>0</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>139</v>
+      <c r="J87" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F88" s="4" t="n">
         <v>0</v>
@@ -4921,18 +4973,18 @@
         <v>0</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>28</v>
@@ -4940,31 +4992,31 @@
       <c r="C89" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D89" s="4" t="n">
-        <v>0</v>
+      <c r="D89" s="2" t="n">
+        <v>200</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F89" s="2" t="n">
-        <v>800</v>
+        <v>300</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G89" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="I89" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>28</v>
@@ -4976,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G90" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J90" s="0" t="s">
         <v>13</v>
@@ -4996,10 +5048,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>30</v>
+        <v>141</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>3</v>
@@ -5008,19 +5060,19 @@
         <v>0</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G91" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>13</v>
@@ -5028,28 +5080,28 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G92" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>13</v>
@@ -5060,7 +5112,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>30</v>
@@ -5075,13 +5127,13 @@
         <v>500</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G93" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>13</v>
@@ -5092,7 +5144,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>30</v>
@@ -5104,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G94" s="4" t="n">
         <v>0</v>
@@ -5124,7 +5176,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>30</v>
@@ -5136,16 +5188,16 @@
         <v>0</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="G95" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>13</v>
@@ -5156,7 +5208,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>30</v>
@@ -5168,16 +5220,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="G96" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>13</v>
@@ -5188,7 +5240,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>30</v>
@@ -5200,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G97" s="4" t="n">
         <v>0</v>
@@ -5220,7 +5272,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>30</v>
@@ -5232,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>450</v>
@@ -5241,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>13</v>
@@ -5252,7 +5304,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>30</v>
@@ -5284,7 +5336,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>30</v>
@@ -5296,16 +5348,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="F100" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="F100" s="2" t="n">
-        <v>750</v>
-      </c>
       <c r="G100" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>13</v>
@@ -5316,7 +5368,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>30</v>
@@ -5328,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="E101" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="F101" s="2" t="n">
         <v>750</v>
-      </c>
-      <c r="F101" s="2" t="n">
-        <v>400</v>
       </c>
       <c r="G101" s="4" t="n">
         <v>0</v>
@@ -5348,7 +5400,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>30</v>
@@ -5360,16 +5412,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>13</v>
@@ -5380,7 +5432,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>30</v>
@@ -5392,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G103" s="4" t="n">
         <v>0</v>
@@ -5412,7 +5464,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>30</v>
@@ -5424,16 +5476,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G104" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>13</v>
@@ -5444,7 +5496,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>30</v>
@@ -5456,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F105" s="2" t="n">
         <v>600</v>
@@ -5465,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>13</v>
@@ -5476,7 +5528,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>30</v>
@@ -5488,10 +5540,10 @@
         <v>0</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G106" s="4" t="n">
         <v>0</v>
@@ -5508,7 +5560,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>30</v>
@@ -5520,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G107" s="4" t="n">
         <v>0</v>
@@ -5540,7 +5592,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>30</v>
@@ -5552,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G108" s="4" t="n">
         <v>0</v>
@@ -5572,7 +5624,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>30</v>
@@ -5587,13 +5639,13 @@
         <v>750</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="G109" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I109" s="0" t="s">
         <v>13</v>
@@ -5604,7 +5656,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>30</v>
@@ -5616,16 +5668,16 @@
         <v>0</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>13</v>
@@ -5636,7 +5688,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>30</v>
@@ -5648,16 +5700,16 @@
         <v>0</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>13</v>
@@ -5668,7 +5720,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>30</v>
@@ -5680,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>760</v>
+        <v>1600</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>460</v>
+        <v>800</v>
       </c>
       <c r="G112" s="4" t="n">
         <v>0</v>
@@ -5700,7 +5752,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>30</v>
@@ -5712,16 +5764,16 @@
         <v>0</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>1200</v>
+        <v>760</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="G113" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I113" s="0" t="s">
         <v>13</v>
@@ -5732,7 +5784,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>30</v>
@@ -5747,13 +5799,13 @@
         <v>1200</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="G114" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I114" s="0" t="s">
         <v>13</v>
@@ -5764,7 +5816,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>30</v>
@@ -5776,16 +5828,16 @@
         <v>0</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G115" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>13</v>
@@ -5796,7 +5848,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>30</v>
@@ -5808,16 +5860,16 @@
         <v>0</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="G116" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I116" s="0" t="s">
         <v>13</v>
@@ -5828,7 +5880,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>30</v>
@@ -5843,13 +5895,13 @@
         <v>850</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G117" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>13</v>
@@ -5860,7 +5912,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>30</v>
@@ -5872,16 +5924,16 @@
         <v>0</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="G118" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I118" s="0" t="s">
         <v>13</v>
@@ -5892,7 +5944,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>30</v>
@@ -5904,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>675</v>
+        <v>500</v>
       </c>
       <c r="G119" s="4" t="n">
         <v>0</v>
@@ -5924,7 +5976,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>30</v>
@@ -5932,20 +5984,20 @@
       <c r="C120" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D120" s="2" t="n">
-        <v>1000</v>
+      <c r="D120" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="F120" s="4" t="n">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>675</v>
       </c>
       <c r="G120" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I120" s="0" t="s">
         <v>13</v>
@@ -5956,7 +6008,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>30</v>
@@ -5964,20 +6016,20 @@
       <c r="C121" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D121" s="4" t="n">
-        <v>0</v>
+      <c r="D121" s="2" t="n">
+        <v>1000</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>950</v>
-      </c>
-      <c r="F121" s="2" t="n">
-        <v>875</v>
+        <v>500</v>
+      </c>
+      <c r="F121" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G121" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I121" s="0" t="s">
         <v>13</v>
@@ -5988,7 +6040,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>30</v>
@@ -6000,16 +6052,16 @@
         <v>0</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="G122" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>13</v>
@@ -6020,7 +6072,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>30</v>
@@ -6032,16 +6084,16 @@
         <v>0</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G123" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>13</v>
@@ -6052,7 +6104,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>30</v>
@@ -6064,16 +6116,16 @@
         <v>0</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="G124" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>13</v>
@@ -6084,7 +6136,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>30</v>
@@ -6096,16 +6148,16 @@
         <v>0</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="G125" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>13</v>
@@ -6116,7 +6168,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>30</v>
@@ -6128,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G126" s="4" t="n">
         <v>0</v>
@@ -6148,7 +6200,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>30</v>
@@ -6169,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I127" s="0" t="s">
         <v>13</v>
@@ -6180,28 +6232,28 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>29</v>
+        <v>178</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C128" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E128" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>1000</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>175</v>
+        <v>800</v>
       </c>
       <c r="G128" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I128" s="0" t="s">
         <v>13</v>
@@ -6212,7 +6264,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>29</v>
@@ -6221,19 +6273,19 @@
         <v>3</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E129" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="F129" s="4" t="n">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E129" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>175</v>
       </c>
       <c r="G129" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I129" s="0" t="s">
         <v>13</v>
@@ -6244,7 +6296,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>29</v>
@@ -6252,11 +6304,11 @@
       <c r="C130" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D130" s="4" t="n">
-        <v>0</v>
+      <c r="D130" s="2" t="n">
+        <v>100</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F130" s="4" t="n">
         <v>0</v>
@@ -6265,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I130" s="0" t="s">
         <v>13</v>
@@ -6276,7 +6328,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>29</v>
@@ -6288,10 +6340,10 @@
         <v>0</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="F131" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="F131" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G131" s="4" t="n">
         <v>0</v>
@@ -6308,7 +6360,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>29</v>
@@ -6316,20 +6368,20 @@
       <c r="C132" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D132" s="2" t="n">
-        <v>175</v>
+      <c r="D132" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F132" s="4" t="n">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>100</v>
       </c>
       <c r="G132" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I132" s="0" t="s">
         <v>13</v>
@@ -6340,7 +6392,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>29</v>
@@ -6348,11 +6400,11 @@
       <c r="C133" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D133" s="4" t="n">
-        <v>0</v>
+      <c r="D133" s="2" t="n">
+        <v>175</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F133" s="4" t="n">
         <v>0</v>
@@ -6361,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I133" s="0" t="s">
         <v>13</v>
@@ -6370,9 +6422,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>29</v>
@@ -6380,12 +6432,12 @@
       <c r="C134" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="E134" s="2" t="n">
-        <v>300</v>
-      </c>
       <c r="F134" s="4" t="n">
         <v>0</v>
       </c>
@@ -6393,24 +6445,24 @@
         <v>0</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I134" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J134" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J134" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C135" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>200</v>
@@ -6425,18 +6477,18 @@
         <v>0</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J135" s="0" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>29</v>
@@ -6445,10 +6497,10 @@
         <v>4</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="F136" s="4" t="n">
         <v>0</v>
@@ -6457,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I136" s="0" t="s">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="J136" s="0" t="s">
         <v>13</v>
@@ -6468,7 +6520,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>29</v>
@@ -6476,20 +6528,20 @@
       <c r="C137" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D137" s="4" t="n">
-        <v>0</v>
+      <c r="D137" s="2" t="n">
+        <v>400</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="F137" s="2" t="n">
-        <v>200</v>
+        <v>800</v>
+      </c>
+      <c r="F137" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G137" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I137" s="0" t="s">
         <v>13</v>
@@ -6500,7 +6552,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>29</v>
@@ -6508,20 +6560,20 @@
       <c r="C138" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D138" s="2" t="n">
-        <v>350</v>
+      <c r="D138" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="F138" s="4" t="n">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>200</v>
       </c>
       <c r="G138" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I138" s="0" t="s">
         <v>13</v>
@@ -6532,7 +6584,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>29</v>
@@ -6541,7 +6593,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>500</v>
@@ -6553,12 +6605,44 @@
         <v>0</v>
       </c>
       <c r="H139" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F140" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="I139" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J139" s="0" t="s">
+      <c r="I140" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6580,11 +6664,11 @@
   </sheetPr>
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="1" sqref="E85 L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>
@@ -6624,10 +6708,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2</v>
@@ -6659,7 +6743,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>3</v>
@@ -6691,7 +6775,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>4</v>
@@ -6720,10 +6804,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>3</v>
@@ -6755,7 +6839,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>4</v>
@@ -6784,10 +6868,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>3</v>
@@ -6816,10 +6900,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>4</v>
@@ -6848,10 +6932,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>4</v>
@@ -6880,10 +6964,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>2</v>
@@ -6915,7 +6999,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>3</v>
@@ -6944,10 +7028,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>4</v>
@@ -6976,10 +7060,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>3</v>
@@ -7008,7 +7092,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -7040,7 +7124,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -7072,7 +7156,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
@@ -7104,7 +7188,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -7136,7 +7220,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -7168,7 +7252,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -7264,7 +7348,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -7424,7 +7508,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
@@ -7456,7 +7540,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
@@ -7552,7 +7636,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -7584,7 +7668,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -7616,7 +7700,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -7648,7 +7732,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
@@ -7712,7 +7796,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>16</v>
@@ -7744,7 +7828,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>16</v>
@@ -7808,7 +7892,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>16</v>
@@ -7904,7 +7988,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -8000,7 +8084,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>16</v>
@@ -8032,7 +8116,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>16</v>
@@ -8064,7 +8148,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>16</v>
@@ -8128,7 +8212,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
@@ -8160,7 +8244,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>25</v>
@@ -8192,7 +8276,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>25</v>
@@ -8224,10 +8308,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C52" s="12" t="n">
         <v>4</v>
@@ -8256,10 +8340,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C53" s="12" t="n">
         <v>3</v>
@@ -8288,10 +8372,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C54" s="12" t="n">
         <v>4</v>
@@ -8320,10 +8404,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C55" s="12" t="n">
         <v>4</v>
@@ -8352,10 +8436,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C56" s="12" t="n">
         <v>3</v>
@@ -8384,10 +8468,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C57" s="12" t="n">
         <v>4</v>
@@ -8416,10 +8500,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C58" s="12" t="n">
         <v>4</v>
@@ -8448,10 +8532,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C59" s="12" t="n">
         <v>3</v>
@@ -8480,10 +8564,10 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C60" s="12" t="n">
         <v>3</v>
@@ -8512,10 +8596,10 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C61" s="12" t="n">
         <v>4</v>
@@ -8544,7 +8628,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>27</v>
@@ -8576,7 +8660,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>27</v>
@@ -8608,7 +8692,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>27</v>
@@ -8640,7 +8724,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>27</v>
@@ -8672,7 +8756,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>27</v>
@@ -8704,7 +8788,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>27</v>
@@ -8736,7 +8820,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>27</v>
@@ -8768,7 +8852,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>27</v>
@@ -8800,7 +8884,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>27</v>
@@ -8832,7 +8916,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>27</v>
@@ -8864,7 +8948,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>27</v>
@@ -8896,7 +8980,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>27</v>
@@ -8928,7 +9012,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>27</v>
@@ -8963,7 +9047,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C75" s="12" t="n">
         <v>1</v>
@@ -8992,7 +9076,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>30</v>
@@ -9024,7 +9108,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>30</v>
@@ -9056,7 +9140,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>30</v>
@@ -9088,7 +9172,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>30</v>
@@ -9120,7 +9204,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>30</v>
@@ -9152,7 +9236,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>30</v>
@@ -9184,7 +9268,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>30</v>
@@ -9216,7 +9300,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>30</v>
@@ -9248,7 +9332,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>30</v>
@@ -9280,7 +9364,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>30</v>
@@ -9312,7 +9396,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>30</v>
@@ -9344,7 +9428,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>30</v>
@@ -9376,7 +9460,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>30</v>
@@ -9408,7 +9492,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>30</v>
@@ -9440,7 +9524,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>30</v>
@@ -9472,7 +9556,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>30</v>
@@ -9504,7 +9588,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>30</v>
@@ -9536,7 +9620,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>30</v>
@@ -9568,7 +9652,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>30</v>
@@ -9600,7 +9684,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>30</v>
@@ -9632,7 +9716,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>30</v>
@@ -9664,7 +9748,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>30</v>
@@ -9696,7 +9780,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>30</v>
@@ -9728,7 +9812,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>30</v>
@@ -9760,7 +9844,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>30</v>
@@ -9792,7 +9876,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>30</v>
@@ -9824,7 +9908,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>30</v>
@@ -9856,7 +9940,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>30</v>
@@ -9888,7 +9972,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>30</v>
@@ -9920,7 +10004,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>30</v>
@@ -9952,7 +10036,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>30</v>
@@ -9984,7 +10068,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>30</v>
@@ -10016,7 +10100,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>30</v>
@@ -10048,7 +10132,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>30</v>
@@ -10080,7 +10164,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>30</v>
@@ -10112,7 +10196,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>30</v>
@@ -10144,7 +10228,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>30</v>
@@ -10176,7 +10260,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>30</v>
@@ -10208,7 +10292,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>30</v>
@@ -10240,7 +10324,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>30</v>
@@ -10272,7 +10356,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>30</v>
@@ -10304,7 +10388,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>30</v>
@@ -10336,7 +10420,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>30</v>
@@ -10368,7 +10452,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>30</v>
@@ -10400,7 +10484,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>30</v>
@@ -10432,7 +10516,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>30</v>
@@ -10464,7 +10548,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>30</v>
@@ -10496,7 +10580,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>30</v>
@@ -10528,7 +10612,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>30</v>
@@ -10560,7 +10644,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>30</v>
@@ -10592,7 +10676,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>30</v>
@@ -10624,7 +10708,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>30</v>
@@ -10656,7 +10740,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>30</v>
@@ -10688,7 +10772,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>30</v>
@@ -10720,7 +10804,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>30</v>
@@ -10752,7 +10836,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>30</v>
@@ -10784,7 +10868,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>30</v>
@@ -10816,7 +10900,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>30</v>
@@ -10848,7 +10932,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>30</v>
@@ -10880,7 +10964,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>30</v>
@@ -10912,7 +10996,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>30</v>
@@ -10944,7 +11028,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>30</v>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Upgrades" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Units" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="GatherRates" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="WalkTimes" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="300">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -861,6 +863,69 @@
   </si>
   <si>
     <t xml:space="preserve">Woad Raider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base+Wheelbarrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade1+Wheelbarrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base+Handcart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade1+Handcart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shepherds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoarHunters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeerHunters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BerryPickers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumberjacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StragglerLumberjacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GoldMiners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StoneMiners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdleBuilders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walkers</t>
   </si>
 </sst>
 </file>
@@ -874,7 +939,7 @@
     <numFmt numFmtId="167" formatCode="hh:mm"/>
     <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -920,6 +985,13 @@
       <sz val="11"/>
       <color rgb="FF11A9CC"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -981,7 +1053,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,6 +1112,14 @@
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1131,10 +1211,10 @@
   <dimension ref="A1:W327"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="1" sqref="E85 J9"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.82421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
@@ -2161,11 +2241,11 @@
   </sheetPr>
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E85" activeCellId="0" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.2"/>
@@ -6665,10 +6745,10 @@
   <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="1" sqref="E85 L15"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>
@@ -11056,6 +11136,471 @@
       </c>
       <c r="J137" s="0" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="2" style="0" width="16.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="J2" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
